--- a/public/DataUpload/users-FE-1.xlsx
+++ b/public/DataUpload/users-FE-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">heaney.rodolfo@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Edward Casper IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rene57@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">Vella Moen</t>
@@ -179,13 +173,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="30.47"/>
@@ -270,7 +264,7 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -278,24 +272,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/DataUpload/users-FE-1.xlsx
+++ b/public/DataUpload/users-FE-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,34 +34,40 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaleigh Cartwright DDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casey.west@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bo Maggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reilly.amelia@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tavares O'Reilly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djakubowski@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Bernhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heaney.rodolfo@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vella Moen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">katelyn.cremin@example.org</t>
+    <t xml:space="preserve">Marielle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roy.krajcik@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herman40@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascale Maggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isabel73@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Santiago Bartoletti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reed.okeefe@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jannie Crooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bartoletti.ana@example.org</t>
   </si>
 </sst>
 </file>
@@ -143,12 +149,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,106 +186,106 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
